--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H2">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N2">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O2">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P2">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q2">
-        <v>637.2540410544719</v>
+        <v>1.612250597937777</v>
       </c>
       <c r="R2">
-        <v>5735.286369490248</v>
+        <v>14.51025538144</v>
       </c>
       <c r="S2">
-        <v>0.03283418650792038</v>
+        <v>0.0006632644287092638</v>
       </c>
       <c r="T2">
-        <v>0.03283418650792038</v>
+        <v>0.000663264428709264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H3">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.310395</v>
       </c>
       <c r="O3">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P3">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q3">
-        <v>2.589392619773333</v>
+        <v>2.460830666536666</v>
       </c>
       <c r="R3">
-        <v>23.30453357796</v>
+        <v>22.14747599883</v>
       </c>
       <c r="S3">
-        <v>0.0001334171221247739</v>
+        <v>0.001012362127995732</v>
       </c>
       <c r="T3">
-        <v>0.0001334171221247739</v>
+        <v>0.001012362127995732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H4">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N4">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O4">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P4">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q4">
-        <v>2.210312447621333</v>
+        <v>2.008146279776</v>
       </c>
       <c r="R4">
-        <v>19.892812028592</v>
+        <v>18.073316517984</v>
       </c>
       <c r="S4">
-        <v>0.0001138852113450518</v>
+        <v>0.0008261321141539226</v>
       </c>
       <c r="T4">
-        <v>0.0001138852113450518</v>
+        <v>0.0008261321141539227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H5">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N5">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O5">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P5">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q5">
-        <v>481.2550630447484</v>
+        <v>150.9559209414822</v>
       </c>
       <c r="R5">
-        <v>4331.295567402736</v>
+        <v>1358.60328847334</v>
       </c>
       <c r="S5">
-        <v>0.02479641944952616</v>
+        <v>0.06210181766507066</v>
       </c>
       <c r="T5">
-        <v>0.02479641944952616</v>
+        <v>0.06210181766507068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N6">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O6">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P6">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q6">
-        <v>3537.757400280183</v>
+        <v>9.418118970435556</v>
       </c>
       <c r="R6">
-        <v>31839.81660252165</v>
+        <v>84.76307073392</v>
       </c>
       <c r="S6">
-        <v>0.182281129372463</v>
+        <v>0.003874523790800233</v>
       </c>
       <c r="T6">
-        <v>0.182281129372463</v>
+        <v>0.003874523790800233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.310395</v>
       </c>
       <c r="O7">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P7">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q7">
         <v>14.37518212936833</v>
@@ -883,10 +883,10 @@
         <v>129.376639164315</v>
       </c>
       <c r="S7">
-        <v>0.0007406738611496038</v>
+        <v>0.005913812018319425</v>
       </c>
       <c r="T7">
-        <v>0.0007406738611496036</v>
+        <v>0.005913812018319425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N8">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O8">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P8">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q8">
-        <v>12.27069381241533</v>
+        <v>11.730782173168</v>
       </c>
       <c r="R8">
-        <v>110.436244311738</v>
+        <v>105.577039558512</v>
       </c>
       <c r="S8">
-        <v>0.0006322411836757426</v>
+        <v>0.004825931245645829</v>
       </c>
       <c r="T8">
-        <v>0.0006322411836757426</v>
+        <v>0.004825931245645829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N9">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O9">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P9">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q9">
-        <v>2671.718892345684</v>
+        <v>881.8237217818745</v>
       </c>
       <c r="R9">
-        <v>24045.47003111116</v>
+        <v>7936.413496036871</v>
       </c>
       <c r="S9">
-        <v>0.1376589409505433</v>
+        <v>0.36277381927974</v>
       </c>
       <c r="T9">
-        <v>0.1376589409505433</v>
+        <v>0.36277381927974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H10">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N10">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O10">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P10">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q10">
-        <v>4332.434754392973</v>
+        <v>10.2106456088</v>
       </c>
       <c r="R10">
-        <v>38991.91278953676</v>
+        <v>91.89581047919999</v>
       </c>
       <c r="S10">
-        <v>0.2232264710691344</v>
+        <v>0.004200561646642264</v>
       </c>
       <c r="T10">
-        <v>0.2232264710691344</v>
+        <v>0.004200561646642264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H11">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.310395</v>
       </c>
       <c r="O11">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P11">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q11">
-        <v>17.60424235225166</v>
+        <v>15.584841383475</v>
       </c>
       <c r="R11">
-        <v>158.438181170265</v>
+        <v>140.263572451275</v>
       </c>
       <c r="S11">
-        <v>0.0009070495273250897</v>
+        <v>0.006411454230475637</v>
       </c>
       <c r="T11">
-        <v>0.0009070495273250896</v>
+        <v>0.006411454230475637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H12">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N12">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O12">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P12">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q12">
-        <v>15.02702823240866</v>
+        <v>12.71791743768</v>
       </c>
       <c r="R12">
-        <v>135.243254091678</v>
+        <v>114.46125693912</v>
       </c>
       <c r="S12">
-        <v>0.000774259896141664</v>
+        <v>0.005232029223288252</v>
       </c>
       <c r="T12">
-        <v>0.000774259896141664</v>
+        <v>0.005232029223288251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H13">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N13">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O13">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P13">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q13">
-        <v>3271.860241815908</v>
+        <v>956.0284320905499</v>
       </c>
       <c r="R13">
-        <v>29446.74217634317</v>
+        <v>8604.255888814951</v>
       </c>
       <c r="S13">
-        <v>0.1685809151243186</v>
+        <v>0.3933009252106502</v>
       </c>
       <c r="T13">
-        <v>0.1685809151243186</v>
+        <v>0.3933009252106502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H14">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N14">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O14">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P14">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q14">
-        <v>2502.869482084896</v>
+        <v>3.715042821137778</v>
       </c>
       <c r="R14">
-        <v>22525.82533876407</v>
+        <v>33.43538539024</v>
       </c>
       <c r="S14">
-        <v>0.1289590619837794</v>
+        <v>0.001528332975992791</v>
       </c>
       <c r="T14">
-        <v>0.1289590619837794</v>
+        <v>0.001528332975992791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H15">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.310395</v>
       </c>
       <c r="O15">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P15">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q15">
-        <v>10.17005989392</v>
+        <v>5.670391013311666</v>
       </c>
       <c r="R15">
-        <v>91.53053904527999</v>
+        <v>51.033519119805</v>
       </c>
       <c r="S15">
-        <v>0.0005240071020987791</v>
+        <v>0.002332744463430775</v>
       </c>
       <c r="T15">
-        <v>0.0005240071020987789</v>
+        <v>0.002332744463430775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H16">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N16">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O16">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P16">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q16">
-        <v>8.681190254783999</v>
+        <v>4.627288977296</v>
       </c>
       <c r="R16">
-        <v>78.13071229305599</v>
+        <v>41.645600795664</v>
       </c>
       <c r="S16">
-        <v>0.0004472938601764845</v>
+        <v>0.001903622292914388</v>
       </c>
       <c r="T16">
-        <v>0.0004472938601764844</v>
+        <v>0.001903622292914388</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H17">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N17">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O17">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P17">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q17">
-        <v>1890.170219086272</v>
+        <v>347.8415273154322</v>
       </c>
       <c r="R17">
-        <v>17011.53197177645</v>
+        <v>3130.57374583889</v>
       </c>
       <c r="S17">
-        <v>0.09739004777827742</v>
+        <v>0.1430986672861708</v>
       </c>
       <c r="T17">
-        <v>0.09739004777827741</v>
+        <v>0.1430986672861708</v>
       </c>
     </row>
   </sheetData>
